--- a/output/JRC/annual_households_gas_space_heating_bcm.xlsx
+++ b/output/JRC/annual_households_gas_space_heating_bcm.xlsx
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8985123382340189</v>
+        <v>0.898512338234019</v>
       </c>
       <c r="C3" t="n">
         <v>1.01036553995104</v>
@@ -596,7 +596,7 @@
         <v>1.37430233350373</v>
       </c>
       <c r="G3" t="n">
-        <v>1.504136326119769</v>
+        <v>1.50413632611977</v>
       </c>
       <c r="H3" t="n">
         <v>1.637660706450305</v>
@@ -608,7 +608,7 @@
         <v>1.914102390307793</v>
       </c>
       <c r="K3" t="n">
-        <v>2.056317969997828</v>
+        <v>2.056317969997829</v>
       </c>
       <c r="L3" t="n">
         <v>2.20076116715315</v>
@@ -617,31 +617,31 @@
         <v>2.347066519995014</v>
       </c>
       <c r="N3" t="n">
-        <v>2.495631531874308</v>
+        <v>2.495631531874309</v>
       </c>
       <c r="O3" t="n">
         <v>2.646127056693066</v>
       </c>
       <c r="P3" t="n">
-        <v>2.798510170732295</v>
+        <v>2.798510170732296</v>
       </c>
       <c r="Q3" t="n">
         <v>2.952518069221683</v>
       </c>
       <c r="R3" t="n">
-        <v>3.107411966376851</v>
+        <v>3.107411966376852</v>
       </c>
       <c r="S3" t="n">
         <v>3.263152647521948</v>
       </c>
       <c r="T3" t="n">
-        <v>3.419553590037544</v>
+        <v>3.419553590037546</v>
       </c>
       <c r="U3" t="n">
         <v>3.576370401243241</v>
       </c>
       <c r="V3" t="n">
-        <v>3.733652252272154</v>
+        <v>3.733652252272156</v>
       </c>
     </row>
     <row r="4">
@@ -721,22 +721,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6660829788971835</v>
+        <v>0.6660829788971834</v>
       </c>
       <c r="C5" t="n">
         <v>0.7216702659847349</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7795239358571442</v>
+        <v>0.7795239358571441</v>
       </c>
       <c r="E5" t="n">
-        <v>0.83962472911992</v>
+        <v>0.8396247291199199</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9016982994853252</v>
+        <v>0.9016982994853249</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9657717817778811</v>
+        <v>0.9657717817778809</v>
       </c>
       <c r="H5" t="n">
         <v>1.032098532193145</v>
@@ -754,16 +754,16 @@
         <v>1.316015606617379</v>
       </c>
       <c r="M5" t="n">
-        <v>1.391032340824088</v>
+        <v>1.391032340824087</v>
       </c>
       <c r="N5" t="n">
-        <v>1.467437721119961</v>
+        <v>1.46743772111996</v>
       </c>
       <c r="O5" t="n">
         <v>1.545177578405251</v>
       </c>
       <c r="P5" t="n">
-        <v>1.624002656106672</v>
+        <v>1.624002656106671</v>
       </c>
       <c r="Q5" t="n">
         <v>1.703930352806948</v>
@@ -772,7 +772,7 @@
         <v>1.78486360463567</v>
       </c>
       <c r="S5" t="n">
-        <v>1.866938323799184</v>
+        <v>1.866938323799183</v>
       </c>
       <c r="T5" t="n">
         <v>1.94998471173703</v>
@@ -861,67 +861,67 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2268535300895559</v>
+        <v>0.2268535300895561</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2482385794149747</v>
+        <v>0.2482385794149748</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2701811625854021</v>
+        <v>0.2701811625854022</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2928073940463868</v>
+        <v>0.2928073940463869</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3161252891387472</v>
+        <v>0.3161252891387473</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3400531741475002</v>
+        <v>0.3400531741475003</v>
       </c>
       <c r="H7" t="n">
-        <v>0.36449679879196</v>
+        <v>0.3644967987919603</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3894488637852992</v>
+        <v>0.3894488637852994</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4147948328313943</v>
+        <v>0.4147948328313945</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4405069609542928</v>
+        <v>0.440506960954293</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4665529085316206</v>
+        <v>0.4665529085316208</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4928353790431804</v>
+        <v>0.4928353790431808</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5192671720119857</v>
+        <v>0.5192671720119859</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5458236890809854</v>
+        <v>0.5458236890809857</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5725092360634446</v>
+        <v>0.5725092360634448</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.599293535802737</v>
+        <v>0.5992935358027374</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6261487149534426</v>
+        <v>0.626148714953443</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6530396726222881</v>
+        <v>0.6530396726222883</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6799364004568649</v>
+        <v>0.6799364004568653</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7068331282914417</v>
+        <v>0.7068331282914421</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7337298561260186</v>
+        <v>0.7337298561260189</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.606364400486047</v>
+        <v>5.606364400486046</v>
       </c>
       <c r="C11" t="n">
         <v>6.503412121705503</v>
       </c>
       <c r="D11" t="n">
-        <v>7.453669381096847</v>
+        <v>7.453669381096846</v>
       </c>
       <c r="E11" t="n">
-        <v>8.45426494596412</v>
+        <v>8.454264945964118</v>
       </c>
       <c r="F11" t="n">
-        <v>9.50053919471188</v>
+        <v>9.500539194711878</v>
       </c>
       <c r="G11" t="n">
         <v>10.59521010973837</v>
@@ -1180,7 +1180,7 @@
         <v>19.13868178644042</v>
       </c>
       <c r="O11" t="n">
-        <v>20.44393851507272</v>
+        <v>20.44393851507271</v>
       </c>
       <c r="P11" t="n">
         <v>21.76049581625315</v>
@@ -1192,7 +1192,7 @@
         <v>24.40785726963371</v>
       </c>
       <c r="S11" t="n">
-        <v>25.73629515602699</v>
+        <v>25.73629515602698</v>
       </c>
       <c r="T11" t="n">
         <v>27.06869196311352</v>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9429040119955998</v>
+        <v>0.9429040119956001</v>
       </c>
       <c r="C14" t="n">
         <v>1.014457152439502</v>
@@ -1366,52 +1366,52 @@
         <v>1.240839970829643</v>
       </c>
       <c r="G14" t="n">
-        <v>1.319731901035701</v>
+        <v>1.319731901035702</v>
       </c>
       <c r="H14" t="n">
         <v>1.400067009561864</v>
       </c>
       <c r="I14" t="n">
-        <v>1.481813054989122</v>
+        <v>1.481813054989123</v>
       </c>
       <c r="J14" t="n">
-        <v>1.564845557032466</v>
+        <v>1.564845557032467</v>
       </c>
       <c r="K14" t="n">
-        <v>1.649233419270001</v>
+        <v>1.649233419270002</v>
       </c>
       <c r="L14" t="n">
         <v>1.734645503640795</v>
       </c>
       <c r="M14" t="n">
-        <v>1.821047992954701</v>
+        <v>1.821047992954702</v>
       </c>
       <c r="N14" t="n">
         <v>1.908287666487847</v>
       </c>
       <c r="O14" t="n">
-        <v>1.996584594972219</v>
+        <v>1.99658459497222</v>
       </c>
       <c r="P14" t="n">
-        <v>2.085860220071331</v>
+        <v>2.085860220071332</v>
       </c>
       <c r="Q14" t="n">
         <v>2.175882310081038</v>
       </c>
       <c r="R14" t="n">
-        <v>2.266563267212076</v>
+        <v>2.266563267212077</v>
       </c>
       <c r="S14" t="n">
         <v>2.357792770892933</v>
       </c>
       <c r="T14" t="n">
-        <v>2.449649080902206</v>
+        <v>2.449649080902207</v>
       </c>
       <c r="U14" t="n">
-        <v>2.541911120500383</v>
+        <v>2.541911120500384</v>
       </c>
       <c r="V14" t="n">
-        <v>2.63446594989326</v>
+        <v>2.634465949893261</v>
       </c>
     </row>
     <row r="15">
@@ -2570,10 +2570,10 @@
         <v>1.58939356309002</v>
       </c>
       <c r="G3" t="n">
-        <v>1.732514871280994</v>
+        <v>1.732514871280995</v>
       </c>
       <c r="H3" t="n">
-        <v>1.879361816999802</v>
+        <v>1.879361816999803</v>
       </c>
       <c r="I3" t="n">
         <v>2.028420356352707</v>
@@ -2582,16 +2582,16 @@
         <v>2.179557306909972</v>
       </c>
       <c r="K3" t="n">
-        <v>2.332513401504966</v>
+        <v>2.332513401504967</v>
       </c>
       <c r="L3" t="n">
-        <v>2.486856807329005</v>
+        <v>2.486856807329006</v>
       </c>
       <c r="M3" t="n">
-        <v>2.642016801895824</v>
+        <v>2.642016801895825</v>
       </c>
       <c r="N3" t="n">
-        <v>2.797768387013397</v>
+        <v>2.797768387013398</v>
       </c>
       <c r="O3" t="n">
         <v>2.954134899340052</v>
@@ -2600,22 +2600,22 @@
         <v>3.111074146477444</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.268500113379368</v>
+        <v>3.268500113379369</v>
       </c>
       <c r="R3" t="n">
         <v>3.426282229335824</v>
       </c>
       <c r="S3" t="n">
-        <v>3.584339129121384</v>
+        <v>3.584339129121385</v>
       </c>
       <c r="T3" t="n">
-        <v>3.742633877577643</v>
+        <v>3.742633877577644</v>
       </c>
       <c r="U3" t="n">
-        <v>3.901053075017067</v>
+        <v>3.901053075017068</v>
       </c>
       <c r="V3" t="n">
-        <v>4.05960129101875</v>
+        <v>4.059601291018751</v>
       </c>
     </row>
     <row r="4">
@@ -2695,7 +2695,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8034480832155334</v>
+        <v>0.8034480832155333</v>
       </c>
       <c r="C5" t="n">
         <v>0.861891181497927</v>
@@ -2725,7 +2725,7 @@
         <v>1.39495751327276</v>
       </c>
       <c r="L5" t="n">
-        <v>1.469019007160196</v>
+        <v>1.469019007160195</v>
       </c>
       <c r="M5" t="n">
         <v>1.544482524818214</v>
@@ -2746,7 +2746,7 @@
         <v>1.938614137270134</v>
       </c>
       <c r="S5" t="n">
-        <v>2.019909317944563</v>
+        <v>2.019909317944562</v>
       </c>
       <c r="T5" t="n">
         <v>2.101840747335653</v>
@@ -2835,67 +2835,67 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2383669861889459</v>
+        <v>0.2383669861889461</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2619159982000066</v>
+        <v>0.2619159982000067</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2859229575656674</v>
+        <v>0.2859229575656675</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3104042529176939</v>
+        <v>0.310404252917694</v>
       </c>
       <c r="F7" t="n">
-        <v>0.335283844988039</v>
+        <v>0.3352838449880391</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3605057445403062</v>
+        <v>0.3605057445403064</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3860531766728073</v>
+        <v>0.3860531766728074</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4119728962152656</v>
+        <v>0.4119728962152657</v>
       </c>
       <c r="J7" t="n">
-        <v>0.438215348679791</v>
+        <v>0.4382153486797911</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4646900124918537</v>
+        <v>0.464690012491854</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4913027190450753</v>
+        <v>0.4913027190450756</v>
       </c>
       <c r="M7" t="n">
-        <v>0.518019200936933</v>
+        <v>0.5180192009369332</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5448114617532308</v>
+        <v>0.544811461753231</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5716583158949273</v>
+        <v>0.5716583158949275</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5985388601783608</v>
+        <v>0.598538860178361</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6254222294582632</v>
+        <v>0.6254222294582634</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6523176222669779</v>
+        <v>0.6523176222669781</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6792143501015547</v>
+        <v>0.6792143501015551</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7061110779361317</v>
+        <v>0.7061110779361319</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7330078057707085</v>
+        <v>0.7330078057707087</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7599045336052853</v>
+        <v>0.7599045336052856</v>
       </c>
     </row>
     <row r="8">
@@ -3115,16 +3115,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.776071974994127</v>
+        <v>6.776071974994126</v>
       </c>
       <c r="C11" t="n">
         <v>7.77308467237492</v>
       </c>
       <c r="D11" t="n">
-        <v>8.81722954607118</v>
+        <v>8.817229546071179</v>
       </c>
       <c r="E11" t="n">
-        <v>9.911411070732102</v>
+        <v>9.9114110707321</v>
       </c>
       <c r="F11" t="n">
         <v>11.04480233210401</v>
@@ -3139,13 +3139,13 @@
         <v>14.64009889892426</v>
       </c>
       <c r="J11" t="n">
-        <v>15.883553433778</v>
+        <v>15.88355343377799</v>
       </c>
       <c r="K11" t="n">
-        <v>17.14787659391153</v>
+        <v>17.14787659391152</v>
       </c>
       <c r="L11" t="n">
-        <v>18.43377907262034</v>
+        <v>18.43377907262033</v>
       </c>
       <c r="M11" t="n">
         <v>19.73445088974125</v>
@@ -3157,7 +3157,7 @@
         <v>22.36130180576101</v>
       </c>
       <c r="P11" t="n">
-        <v>23.68509382335438</v>
+        <v>23.68509382335437</v>
       </c>
       <c r="Q11" t="n">
         <v>25.01145771693191</v>
@@ -3166,16 +3166,16 @@
         <v>26.33917218760437</v>
       </c>
       <c r="S11" t="n">
-        <v>27.66804414456758</v>
+        <v>27.66804414456757</v>
       </c>
       <c r="T11" t="n">
-        <v>28.99790308633237</v>
+        <v>28.99790308633236</v>
       </c>
       <c r="U11" t="n">
-        <v>30.32941292635968</v>
+        <v>30.32941292635967</v>
       </c>
       <c r="V11" t="n">
-        <v>31.66191045848401</v>
+        <v>31.661910458484</v>
       </c>
     </row>
     <row r="12">
@@ -3331,22 +3331,22 @@
         <v>1.229198951059006</v>
       </c>
       <c r="D14" t="n">
-        <v>1.306060018650674</v>
+        <v>1.306060018650675</v>
       </c>
       <c r="E14" t="n">
-        <v>1.384610622010289</v>
+        <v>1.38461062201029</v>
       </c>
       <c r="F14" t="n">
-        <v>1.464908673412647</v>
+        <v>1.464908673412648</v>
       </c>
       <c r="G14" t="n">
         <v>1.546748706193235</v>
       </c>
       <c r="H14" t="n">
-        <v>1.629920841949599</v>
+        <v>1.6299208419496</v>
       </c>
       <c r="I14" t="n">
-        <v>1.714387889333738</v>
+        <v>1.714387889333739</v>
       </c>
       <c r="J14" t="n">
         <v>1.799957547311374</v>
@@ -3358,13 +3358,13 @@
         <v>1.974076011736124</v>
       </c>
       <c r="M14" t="n">
-        <v>2.062280026339843</v>
+        <v>2.062280026339844</v>
       </c>
       <c r="N14" t="n">
         <v>2.151215807850561</v>
       </c>
       <c r="O14" t="n">
-        <v>2.240736974619031</v>
+        <v>2.240736974619032</v>
       </c>
       <c r="P14" t="n">
         <v>2.330758660862145</v>
@@ -3373,19 +3373,19 @@
         <v>2.421283473343083</v>
       </c>
       <c r="R14" t="n">
-        <v>2.512293944165099</v>
+        <v>2.5122939441651</v>
       </c>
       <c r="S14" t="n">
         <v>2.603749260072505</v>
       </c>
       <c r="T14" t="n">
-        <v>2.69552473189768</v>
+        <v>2.695524731897681</v>
       </c>
       <c r="U14" t="n">
         <v>2.787742186431717</v>
       </c>
       <c r="V14" t="n">
-        <v>2.880449379390017</v>
+        <v>2.880449379390018</v>
       </c>
     </row>
     <row r="15">
@@ -4541,19 +4541,19 @@
         <v>1.712856261301577</v>
       </c>
       <c r="F3" t="n">
-        <v>1.85871159309918</v>
+        <v>1.858711593099181</v>
       </c>
       <c r="G3" t="n">
         <v>2.007283684871921</v>
       </c>
       <c r="H3" t="n">
-        <v>2.158110582820521</v>
+        <v>2.158110582820522</v>
       </c>
       <c r="I3" t="n">
         <v>2.31074354082202</v>
       </c>
       <c r="J3" t="n">
-        <v>2.464931875920825</v>
+        <v>2.464931875920826</v>
       </c>
       <c r="K3" t="n">
         <v>2.620358024355415</v>
@@ -4568,7 +4568,7 @@
         <v>3.091529340504701</v>
       </c>
       <c r="O3" t="n">
-        <v>3.249748825978323</v>
+        <v>3.249748825978324</v>
       </c>
       <c r="P3" t="n">
         <v>3.408370765242295</v>
@@ -4577,19 +4577,19 @@
         <v>3.567388278832103</v>
       </c>
       <c r="R3" t="n">
-        <v>3.72666744718554</v>
+        <v>3.726667447185541</v>
       </c>
       <c r="S3" t="n">
         <v>3.885972456350304</v>
       </c>
       <c r="T3" t="n">
-        <v>4.045277465515067</v>
+        <v>4.045277465515069</v>
       </c>
       <c r="U3" t="n">
-        <v>4.204582474679831</v>
+        <v>4.204582474679832</v>
       </c>
       <c r="V3" t="n">
-        <v>4.363887483844594</v>
+        <v>4.363887483844595</v>
       </c>
     </row>
     <row r="4">
@@ -4669,7 +4669,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9885101785005841</v>
+        <v>0.9885101785005839</v>
       </c>
       <c r="C5" t="n">
         <v>1.051735422012937</v>
@@ -4684,7 +4684,7 @@
         <v>1.252203789415724</v>
       </c>
       <c r="G5" t="n">
-        <v>1.322688308242469</v>
+        <v>1.322688308242468</v>
       </c>
       <c r="H5" t="n">
         <v>1.394781588227163</v>
@@ -4702,34 +4702,34 @@
         <v>1.698524643889376</v>
       </c>
       <c r="M5" t="n">
-        <v>1.777835544113566</v>
+        <v>1.777835544113565</v>
       </c>
       <c r="N5" t="n">
         <v>1.858243113183324</v>
       </c>
       <c r="O5" t="n">
-        <v>1.939629752918619</v>
+        <v>1.939629752918618</v>
       </c>
       <c r="P5" t="n">
         <v>2.021915772544325</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.105053994302663</v>
+        <v>2.105053994302662</v>
       </c>
       <c r="R5" t="n">
-        <v>2.188965920012222</v>
+        <v>2.188965920012221</v>
       </c>
       <c r="S5" t="n">
         <v>2.273709487793189</v>
       </c>
       <c r="T5" t="n">
-        <v>2.359182040186738</v>
+        <v>2.359182040186737</v>
       </c>
       <c r="U5" t="n">
         <v>2.445200261934978</v>
       </c>
       <c r="V5" t="n">
-        <v>2.531665671592387</v>
+        <v>2.531665671592386</v>
       </c>
     </row>
     <row r="6">
@@ -4809,67 +4809,67 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3081531737896341</v>
+        <v>0.3081531737896342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3327850462095632</v>
+        <v>0.3327850462095633</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3577006179123012</v>
+        <v>0.3577006179123014</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3829321118185196</v>
+        <v>0.3829321118185197</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4084618757395914</v>
+        <v>0.4084618757395916</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4342685184569218</v>
+        <v>0.434268518456922</v>
       </c>
       <c r="H7" t="n">
-        <v>0.460293151944779</v>
+        <v>0.4602931519447792</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4864826175339005</v>
+        <v>0.4864826175339008</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5128408206229242</v>
+        <v>0.5128408206229246</v>
       </c>
       <c r="K7" t="n">
-        <v>0.53935089216385</v>
+        <v>0.5393508921638501</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5659774523911105</v>
+        <v>0.5659774523911109</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5927124492123059</v>
+        <v>0.5927124492123063</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6194899724404441</v>
+        <v>0.6194899724404443</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6463125502743419</v>
+        <v>0.6463125502743422</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6731836715953786</v>
+        <v>0.6731836715953788</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7000748221468203</v>
+        <v>0.7000748221468207</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7269715499813971</v>
+        <v>0.7269715499813973</v>
       </c>
       <c r="S7" t="n">
-        <v>0.753868277815974</v>
+        <v>0.7538682778159743</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7807650056505508</v>
+        <v>0.7807650056505513</v>
       </c>
       <c r="U7" t="n">
-        <v>0.8076617334851276</v>
+        <v>0.807661733485128</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8345584613197047</v>
+        <v>0.834558461319705</v>
       </c>
     </row>
     <row r="8">
@@ -5092,13 +5092,13 @@
         <v>7.890130817152983</v>
       </c>
       <c r="C11" t="n">
-        <v>8.928816514857498</v>
+        <v>8.928816514857495</v>
       </c>
       <c r="D11" t="n">
         <v>10.02534656849924</v>
       </c>
       <c r="E11" t="n">
-        <v>11.17818357266821</v>
+        <v>11.1781835726682</v>
       </c>
       <c r="F11" t="n">
         <v>12.38120209280783</v>
@@ -5119,10 +5119,10 @@
         <v>18.74669955371475</v>
       </c>
       <c r="L11" t="n">
-        <v>20.06007757090885</v>
+        <v>20.06007757090884</v>
       </c>
       <c r="M11" t="n">
-        <v>21.38217050454606</v>
+        <v>21.38217050454605</v>
       </c>
       <c r="N11" t="n">
         <v>22.71092113042671</v>
@@ -5137,7 +5137,7 @@
         <v>26.72068620024707</v>
       </c>
       <c r="R11" t="n">
-        <v>28.06176456085862</v>
+        <v>28.06176456085861</v>
       </c>
       <c r="S11" t="n">
         <v>29.40457755522573</v>
@@ -5149,7 +5149,7 @@
         <v>32.092329674102</v>
       </c>
       <c r="V11" t="n">
-        <v>33.43653569134064</v>
+        <v>33.43653569134063</v>
       </c>
     </row>
     <row r="12">
@@ -5302,19 +5302,19 @@
         <v>1.386476597308565</v>
       </c>
       <c r="C14" t="n">
-        <v>1.466562919578834</v>
+        <v>1.466562919578835</v>
       </c>
       <c r="D14" t="n">
         <v>1.548034274098861</v>
       </c>
       <c r="E14" t="n">
-        <v>1.630771762576549</v>
+        <v>1.63077176257655</v>
       </c>
       <c r="F14" t="n">
-        <v>1.714532034830194</v>
+        <v>1.714532034830195</v>
       </c>
       <c r="G14" t="n">
-        <v>1.799292872828083</v>
+        <v>1.799292872828084</v>
       </c>
       <c r="H14" t="n">
         <v>1.885049140150037</v>
@@ -5323,19 +5323,19 @@
         <v>1.971578754852257</v>
       </c>
       <c r="J14" t="n">
-        <v>2.058811127281283</v>
+        <v>2.058811127281284</v>
       </c>
       <c r="K14" t="n">
         <v>2.146753255389482</v>
       </c>
       <c r="L14" t="n">
-        <v>2.235188543149999</v>
+        <v>2.23518854315</v>
       </c>
       <c r="M14" t="n">
-        <v>2.324013446745008</v>
+        <v>2.324013446745009</v>
       </c>
       <c r="N14" t="n">
-        <v>2.413273594938981</v>
+        <v>2.413273594938982</v>
       </c>
       <c r="O14" t="n">
         <v>2.502857813851471</v>
@@ -5350,13 +5350,13 @@
         <v>2.774380043546322</v>
       </c>
       <c r="S14" t="n">
-        <v>2.865566227873786</v>
+        <v>2.865566227873787</v>
       </c>
       <c r="T14" t="n">
-        <v>2.957153299055786</v>
+        <v>2.957153299055787</v>
       </c>
       <c r="U14" t="n">
-        <v>3.049121296577815</v>
+        <v>3.049121296577816</v>
       </c>
       <c r="V14" t="n">
         <v>3.141324889325789</v>
@@ -6509,7 +6509,7 @@
         <v>1.973981533136894</v>
       </c>
       <c r="D3" t="n">
-        <v>2.104665489881543</v>
+        <v>2.104665489881544</v>
       </c>
       <c r="E3" t="n">
         <v>2.237965880586749</v>
@@ -6521,37 +6521,37 @@
         <v>2.513671798264494</v>
       </c>
       <c r="H3" t="n">
-        <v>2.656173669906274</v>
+        <v>2.656173669906275</v>
       </c>
       <c r="I3" t="n">
-        <v>2.801046106437737</v>
+        <v>2.801046106437738</v>
       </c>
       <c r="J3" t="n">
         <v>2.948096424085096</v>
       </c>
       <c r="K3" t="n">
-        <v>3.096913703216913</v>
+        <v>3.096913703216914</v>
       </c>
       <c r="L3" t="n">
-        <v>3.247542334256627</v>
+        <v>3.247542334256628</v>
       </c>
       <c r="M3" t="n">
-        <v>3.39969671861234</v>
+        <v>3.399696718612341</v>
       </c>
       <c r="N3" t="n">
-        <v>3.55298041175292</v>
+        <v>3.552980411752921</v>
       </c>
       <c r="O3" t="n">
-        <v>3.706937496786394</v>
+        <v>3.706937496786395</v>
       </c>
       <c r="P3" t="n">
-        <v>3.861711473053678</v>
+        <v>3.861711473053679</v>
       </c>
       <c r="Q3" t="n">
         <v>4.017114966071667</v>
       </c>
       <c r="R3" t="n">
-        <v>4.173000951681238</v>
+        <v>4.173000951681239</v>
       </c>
       <c r="S3" t="n">
         <v>4.329359123438668</v>
@@ -6658,7 +6658,7 @@
         <v>1.490344311921573</v>
       </c>
       <c r="G5" t="n">
-        <v>1.560663000513776</v>
+        <v>1.560663000513775</v>
       </c>
       <c r="H5" t="n">
         <v>1.632432110334914</v>
@@ -6670,10 +6670,10 @@
         <v>1.779949152616355</v>
       </c>
       <c r="K5" t="n">
-        <v>1.85555991736568</v>
+        <v>1.855559917365679</v>
       </c>
       <c r="L5" t="n">
-        <v>1.93222048871912</v>
+        <v>1.932220488719119</v>
       </c>
       <c r="M5" t="n">
         <v>2.009924908275057</v>
@@ -6685,16 +6685,16 @@
         <v>2.168221653662605</v>
       </c>
       <c r="P5" t="n">
-        <v>2.248763469262435</v>
+        <v>2.248763469262434</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.330147230790034</v>
+        <v>2.330147230790033</v>
       </c>
       <c r="R5" t="n">
         <v>2.412329483252621</v>
       </c>
       <c r="S5" t="n">
-        <v>2.495331416021555</v>
+        <v>2.495331416021554</v>
       </c>
       <c r="T5" t="n">
         <v>2.579149605461657</v>
@@ -6783,67 +6783,67 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3987607118534295</v>
+        <v>0.3987607118534297</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4234011717556886</v>
+        <v>0.4234011717556888</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4483901947672615</v>
+        <v>0.4483901947672617</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4737435523269391</v>
+        <v>0.4737435523269393</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4994405157655198</v>
+        <v>0.4994405157655201</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5253655951293733</v>
+        <v>0.5253655951293735</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5515386759527034</v>
+        <v>0.5515386759527037</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5779088670870874</v>
+        <v>0.5779088670870877</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6044189039067666</v>
+        <v>0.6044189039067669</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6310679172933124</v>
+        <v>0.6310679172933127</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6577967865065463</v>
+        <v>0.6577967865065466</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6845642868020204</v>
+        <v>0.6845642868020206</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7113752274649253</v>
+        <v>0.7113752274649255</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7382003811291927</v>
+        <v>0.7382003811291931</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7650480726342533</v>
+        <v>0.7650480726342537</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7919207463901554</v>
+        <v>0.7919207463901559</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8188003564015112</v>
+        <v>0.8188003564015114</v>
       </c>
       <c r="S7" t="n">
-        <v>0.845695399761906</v>
+        <v>0.8456953997619063</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8725921275964827</v>
+        <v>0.8725921275964831</v>
       </c>
       <c r="U7" t="n">
-        <v>0.8994888554310596</v>
+        <v>0.8994888554310601</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9263855832656366</v>
+        <v>0.9263855832656368</v>
       </c>
     </row>
     <row r="8">
@@ -7066,7 +7066,7 @@
         <v>10.78813681956236</v>
       </c>
       <c r="C11" t="n">
-        <v>11.83497505703062</v>
+        <v>11.83497505703061</v>
       </c>
       <c r="D11" t="n">
         <v>12.92286510787104</v>
@@ -7093,7 +7093,7 @@
         <v>21.46469737992245</v>
       </c>
       <c r="L11" t="n">
-        <v>22.75111009878506</v>
+        <v>22.75111009878505</v>
       </c>
       <c r="M11" t="n">
         <v>24.04514131631083</v>
@@ -7105,7 +7105,7 @@
         <v>26.65312813671873</v>
       </c>
       <c r="P11" t="n">
-        <v>27.9654137997742</v>
+        <v>27.96541379977419</v>
       </c>
       <c r="Q11" t="n">
         <v>29.28166244368999</v>
@@ -7114,7 +7114,7 @@
         <v>30.60087444753073</v>
       </c>
       <c r="S11" t="n">
-        <v>31.92424620638096</v>
+        <v>31.92424620638095</v>
       </c>
       <c r="T11" t="n">
         <v>33.25207671168575</v>
@@ -7276,31 +7276,31 @@
         <v>1.600611139180139</v>
       </c>
       <c r="C14" t="n">
-        <v>1.685630484158727</v>
+        <v>1.685630484158728</v>
       </c>
       <c r="D14" t="n">
         <v>1.771663178076158</v>
       </c>
       <c r="E14" t="n">
-        <v>1.858475963915925</v>
+        <v>1.858475963915926</v>
       </c>
       <c r="F14" t="n">
         <v>1.945994117542916</v>
       </c>
       <c r="G14" t="n">
-        <v>2.034343684052679</v>
+        <v>2.03434368405268</v>
       </c>
       <c r="H14" t="n">
-        <v>2.123487236998902</v>
+        <v>2.123487236998903</v>
       </c>
       <c r="I14" t="n">
-        <v>2.213420527096641</v>
+        <v>2.213420527096642</v>
       </c>
       <c r="J14" t="n">
-        <v>2.303786412916343</v>
+        <v>2.303786412916344</v>
       </c>
       <c r="K14" t="n">
-        <v>2.394660331912106</v>
+        <v>2.394660331912107</v>
       </c>
       <c r="L14" t="n">
         <v>2.486087485191422</v>
@@ -7309,31 +7309,31 @@
         <v>2.578090574051601</v>
       </c>
       <c r="N14" t="n">
-        <v>2.670546073109563</v>
+        <v>2.670546073109564</v>
       </c>
       <c r="O14" t="n">
-        <v>2.763184020409702</v>
+        <v>2.763184020409703</v>
       </c>
       <c r="P14" t="n">
-        <v>2.856094325458933</v>
+        <v>2.856094325458934</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.949203941802566</v>
+        <v>2.949203941802567</v>
       </c>
       <c r="R14" t="n">
         <v>3.042525060113239</v>
       </c>
       <c r="S14" t="n">
-        <v>3.13603489323215</v>
+        <v>3.136034893232151</v>
       </c>
       <c r="T14" t="n">
-        <v>3.229641648120943</v>
+        <v>3.229641648120944</v>
       </c>
       <c r="U14" t="n">
-        <v>3.323325581277055</v>
+        <v>3.323325581277056</v>
       </c>
       <c r="V14" t="n">
-        <v>3.417086972895747</v>
+        <v>3.417086972895748</v>
       </c>
     </row>
     <row r="15">
@@ -8477,13 +8477,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.95512310197932</v>
+        <v>1.955123101979321</v>
       </c>
       <c r="C3" t="n">
         <v>2.091174451599359</v>
       </c>
       <c r="D3" t="n">
-        <v>2.229516550405774</v>
+        <v>2.229516550405775</v>
       </c>
       <c r="E3" t="n">
         <v>2.370092132232702</v>
@@ -8492,52 +8492,52 @@
         <v>2.51262456090108</v>
       </c>
       <c r="G3" t="n">
-        <v>2.656706061206126</v>
+        <v>2.656706061206127</v>
       </c>
       <c r="H3" t="n">
         <v>2.802650110897366</v>
       </c>
       <c r="I3" t="n">
-        <v>2.95056548791591</v>
+        <v>2.950565487915911</v>
       </c>
       <c r="J3" t="n">
-        <v>3.100172142903132</v>
+        <v>3.100172142903133</v>
       </c>
       <c r="K3" t="n">
         <v>3.251322709662688</v>
       </c>
       <c r="L3" t="n">
-        <v>3.403749427837621</v>
+        <v>3.403749427837622</v>
       </c>
       <c r="M3" t="n">
         <v>3.556910399649349</v>
       </c>
       <c r="N3" t="n">
-        <v>3.7107754790479</v>
+        <v>3.710775479047901</v>
       </c>
       <c r="O3" t="n">
-        <v>3.865427578204834</v>
+        <v>3.865427578204836</v>
       </c>
       <c r="P3" t="n">
         <v>4.020794421457611</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.176774409594831</v>
+        <v>4.176774409594833</v>
       </c>
       <c r="R3" t="n">
-        <v>4.333272458094784</v>
+        <v>4.333272458094785</v>
       </c>
       <c r="S3" t="n">
-        <v>4.490264367052063</v>
+        <v>4.490264367052064</v>
       </c>
       <c r="T3" t="n">
         <v>4.647502877128908</v>
       </c>
       <c r="U3" t="n">
-        <v>4.805142613307034</v>
+        <v>4.805142613307035</v>
       </c>
       <c r="V3" t="n">
-        <v>4.962985656641724</v>
+        <v>4.962985656641725</v>
       </c>
     </row>
     <row r="4">
@@ -8617,7 +8617,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.303707169516078</v>
+        <v>1.303707169516077</v>
       </c>
       <c r="C5" t="n">
         <v>1.370318153634536</v>
@@ -8629,7 +8629,7 @@
         <v>1.509630038752967</v>
       </c>
       <c r="F5" t="n">
-        <v>1.58204916309891</v>
+        <v>1.582049163098909</v>
       </c>
       <c r="G5" t="n">
         <v>1.656162129887429</v>
@@ -8644,22 +8644,22 @@
         <v>1.887740945916934</v>
       </c>
       <c r="K5" t="n">
-        <v>1.967545081268336</v>
+        <v>1.967545081268335</v>
       </c>
       <c r="L5" t="n">
-        <v>2.048537022096273</v>
+        <v>2.048537022096272</v>
       </c>
       <c r="M5" t="n">
         <v>2.130439369157932</v>
       </c>
       <c r="N5" t="n">
-        <v>2.21315589342906</v>
+        <v>2.213155893429059</v>
       </c>
       <c r="O5" t="n">
-        <v>2.296805756196232</v>
+        <v>2.296805756196231</v>
       </c>
       <c r="P5" t="n">
-        <v>2.381291020175996</v>
+        <v>2.381291020175995</v>
       </c>
       <c r="Q5" t="n">
         <v>2.466512253376703</v>
@@ -8668,7 +8668,7 @@
         <v>2.552402179166616</v>
       </c>
       <c r="S5" t="n">
-        <v>2.638836604592016</v>
+        <v>2.638836604592015</v>
       </c>
       <c r="T5" t="n">
         <v>2.725640610958998</v>
@@ -8757,67 +8757,67 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4404684177689988</v>
+        <v>0.440468417768999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4653010755979659</v>
+        <v>0.465301075597966</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4905042010753973</v>
+        <v>0.4905042010753974</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5159978288997064</v>
+        <v>0.5159978288997066</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5418033706429345</v>
+        <v>0.5418033706429348</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5678580544166004</v>
+        <v>0.5678580544166006</v>
       </c>
       <c r="H7" t="n">
-        <v>0.594142191186444</v>
+        <v>0.5941421911864442</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6206684134083937</v>
+        <v>0.6206684134083941</v>
       </c>
       <c r="J7" t="n">
-        <v>0.647362814648805</v>
+        <v>0.6473628146488052</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6741294380532397</v>
+        <v>0.6741294380532399</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7009464180574212</v>
+        <v>0.7009464180574214</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7278001086889199</v>
+        <v>0.7278001086889201</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7546940843693957</v>
+        <v>0.754694084369396</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7815908122039725</v>
+        <v>0.781590812203973</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8084875400385495</v>
+        <v>0.8084875400385497</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8353842678731261</v>
+        <v>0.8353842678731265</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8622809957077031</v>
+        <v>0.8622809957077034</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8891777235422801</v>
+        <v>0.8891777235422803</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9160744513768568</v>
+        <v>0.9160744513768572</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9429711792114337</v>
+        <v>0.942971179211434</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9698679070460104</v>
+        <v>0.9698679070460108</v>
       </c>
     </row>
     <row r="8">
@@ -9043,7 +9043,7 @@
         <v>13.51777700265784</v>
       </c>
       <c r="D11" t="n">
-        <v>14.61625844321824</v>
+        <v>14.61625844321823</v>
       </c>
       <c r="E11" t="n">
         <v>15.74162738786929</v>
@@ -9064,7 +9064,7 @@
         <v>21.72899340901966</v>
       </c>
       <c r="K11" t="n">
-        <v>22.99903425558161</v>
+        <v>22.9990342555816</v>
       </c>
       <c r="L11" t="n">
         <v>24.2860201316089</v>
@@ -9076,10 +9076,10 @@
         <v>26.88885033510687</v>
       </c>
       <c r="O11" t="n">
-        <v>28.20294944935292</v>
+        <v>28.20294944935291</v>
       </c>
       <c r="P11" t="n">
-        <v>29.52486420097402</v>
+        <v>29.52486420097401</v>
       </c>
       <c r="Q11" t="n">
         <v>30.852625935292</v>
@@ -9091,13 +9091,13 @@
         <v>33.51647605072527</v>
       </c>
       <c r="T11" t="n">
-        <v>34.85224311063632</v>
+        <v>34.85224311063631</v>
       </c>
       <c r="U11" t="n">
-        <v>36.18897951161789</v>
+        <v>36.18897951161788</v>
       </c>
       <c r="V11" t="n">
-        <v>37.52617178886608</v>
+        <v>37.52617178886607</v>
       </c>
     </row>
     <row r="12">
@@ -9253,7 +9253,7 @@
         <v>1.812108796793485</v>
       </c>
       <c r="D14" t="n">
-        <v>1.894192414818246</v>
+        <v>1.894192414818247</v>
       </c>
       <c r="E14" t="n">
         <v>1.977667919753584</v>
@@ -9262,25 +9262,25 @@
         <v>2.062307037254903</v>
       </c>
       <c r="G14" t="n">
-        <v>2.148023251292891</v>
+        <v>2.148023251292892</v>
       </c>
       <c r="H14" t="n">
-        <v>2.234595327470994</v>
+        <v>2.234595327470995</v>
       </c>
       <c r="I14" t="n">
-        <v>2.321964632076949</v>
+        <v>2.32196463207695</v>
       </c>
       <c r="J14" t="n">
         <v>2.410244164685627</v>
       </c>
       <c r="K14" t="n">
-        <v>2.499188552508775</v>
+        <v>2.499188552508776</v>
       </c>
       <c r="L14" t="n">
         <v>2.588632733907993</v>
       </c>
       <c r="M14" t="n">
-        <v>2.678627135928235</v>
+        <v>2.678627135928236</v>
       </c>
       <c r="N14" t="n">
         <v>2.769197622399291</v>
@@ -9292,7 +9292,7 @@
         <v>2.952031089580713</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.044120117186424</v>
+        <v>3.044120117186425</v>
       </c>
       <c r="R14" t="n">
         <v>3.136807899285758</v>
@@ -9301,13 +9301,13 @@
         <v>3.229843478108231</v>
       </c>
       <c r="T14" t="n">
-        <v>3.323162650081445</v>
+        <v>3.323162650081446</v>
       </c>
       <c r="U14" t="n">
         <v>3.416799214498837</v>
       </c>
       <c r="V14" t="n">
-        <v>3.510603024395959</v>
+        <v>3.51060302439596</v>
       </c>
     </row>
     <row r="15">
@@ -10451,10 +10451,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.738535822097948</v>
+        <v>1.738535822097949</v>
       </c>
       <c r="C3" t="n">
-        <v>1.867896028390122</v>
+        <v>1.867896028390123</v>
       </c>
       <c r="D3" t="n">
         <v>2.000467470630597</v>
@@ -10466,7 +10466,7 @@
         <v>2.274461364102029</v>
       </c>
       <c r="G3" t="n">
-        <v>2.415472200114201</v>
+        <v>2.415472200114202</v>
       </c>
       <c r="H3" t="n">
         <v>2.559260596607901</v>
@@ -10475,25 +10475,25 @@
         <v>2.7053959835282</v>
       </c>
       <c r="J3" t="n">
-        <v>2.853337710667744</v>
+        <v>2.853337710667745</v>
       </c>
       <c r="K3" t="n">
-        <v>3.003152890068159</v>
+        <v>3.00315289006816</v>
       </c>
       <c r="L3" t="n">
         <v>3.154416246164941</v>
       </c>
       <c r="M3" t="n">
-        <v>3.306888471968884</v>
+        <v>3.306888471968885</v>
       </c>
       <c r="N3" t="n">
-        <v>3.460343469932463</v>
+        <v>3.460343469932464</v>
       </c>
       <c r="O3" t="n">
-        <v>3.614932134228897</v>
+        <v>3.614932134228898</v>
       </c>
       <c r="P3" t="n">
-        <v>3.770525999858312</v>
+        <v>3.770525999858313</v>
       </c>
       <c r="Q3" t="n">
         <v>3.926610405993479</v>
@@ -10502,16 +10502,16 @@
         <v>4.083058327447697</v>
       </c>
       <c r="S3" t="n">
-        <v>4.240023786059812</v>
+        <v>4.240023786059813</v>
       </c>
       <c r="T3" t="n">
-        <v>4.397521968979867</v>
+        <v>4.397521968979869</v>
       </c>
       <c r="U3" t="n">
         <v>4.555364638224502</v>
       </c>
       <c r="V3" t="n">
-        <v>4.713382623779799</v>
+        <v>4.7133826237798</v>
       </c>
     </row>
     <row r="4">
@@ -10591,7 +10591,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.303707169516078</v>
+        <v>1.303707169516077</v>
       </c>
       <c r="C5" t="n">
         <v>1.370318153634536</v>
@@ -10603,7 +10603,7 @@
         <v>1.509630038752967</v>
       </c>
       <c r="F5" t="n">
-        <v>1.58204916309891</v>
+        <v>1.582049163098909</v>
       </c>
       <c r="G5" t="n">
         <v>1.656162129887429</v>
@@ -10618,22 +10618,22 @@
         <v>1.887740945916934</v>
       </c>
       <c r="K5" t="n">
-        <v>1.967545081268336</v>
+        <v>1.967545081268335</v>
       </c>
       <c r="L5" t="n">
-        <v>2.048537022096273</v>
+        <v>2.048537022096272</v>
       </c>
       <c r="M5" t="n">
         <v>2.130439369157932</v>
       </c>
       <c r="N5" t="n">
-        <v>2.21315589342906</v>
+        <v>2.213155893429059</v>
       </c>
       <c r="O5" t="n">
-        <v>2.296805756196232</v>
+        <v>2.296805756196231</v>
       </c>
       <c r="P5" t="n">
-        <v>2.381291020175996</v>
+        <v>2.381291020175995</v>
       </c>
       <c r="Q5" t="n">
         <v>2.466512253376703</v>
@@ -10642,7 +10642,7 @@
         <v>2.552402179166616</v>
       </c>
       <c r="S5" t="n">
-        <v>2.638836604592016</v>
+        <v>2.638836604592015</v>
       </c>
       <c r="T5" t="n">
         <v>2.725640610958998</v>
@@ -10731,67 +10731,67 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3987607118534295</v>
+        <v>0.3987607118534297</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4234011717556886</v>
+        <v>0.4234011717556888</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4483901947672615</v>
+        <v>0.4483901947672617</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4737435523269391</v>
+        <v>0.4737435523269393</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4994405157655198</v>
+        <v>0.4994405157655201</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5253655951293733</v>
+        <v>0.5253655951293735</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5515386759527034</v>
+        <v>0.5515386759527037</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5779088670870874</v>
+        <v>0.5779088670870877</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6044189039067666</v>
+        <v>0.6044189039067669</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6310679172933124</v>
+        <v>0.6310679172933127</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6577967865065463</v>
+        <v>0.6577967865065466</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6845642868020204</v>
+        <v>0.6845642868020206</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7113752274649253</v>
+        <v>0.7113752274649255</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7382003811291927</v>
+        <v>0.7382003811291931</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7650480726342533</v>
+        <v>0.7650480726342537</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7919207463901554</v>
+        <v>0.7919207463901559</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8188003564015112</v>
+        <v>0.8188003564015114</v>
       </c>
       <c r="S7" t="n">
-        <v>0.845695399761906</v>
+        <v>0.8456953997619063</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8725921275964827</v>
+        <v>0.8725921275964831</v>
       </c>
       <c r="U7" t="n">
-        <v>0.8994888554310596</v>
+        <v>0.8994888554310601</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9263855832656366</v>
+        <v>0.9263855832656368</v>
       </c>
     </row>
     <row r="8">
@@ -11014,7 +11014,7 @@
         <v>8.927259414700535</v>
       </c>
       <c r="C11" t="n">
-        <v>9.957263687860113</v>
+        <v>9.957263687860111</v>
       </c>
       <c r="D11" t="n">
         <v>11.03044394423778</v>
@@ -11032,7 +11032,7 @@
         <v>15.71567282139132</v>
       </c>
       <c r="I11" t="n">
-        <v>16.96462543433468</v>
+        <v>16.96462543433467</v>
       </c>
       <c r="J11" t="n">
         <v>18.23883649784295</v>
@@ -11041,7 +11041,7 @@
         <v>19.53415454407464</v>
       </c>
       <c r="L11" t="n">
-        <v>20.84458338872705</v>
+        <v>20.84458338872704</v>
       </c>
       <c r="M11" t="n">
         <v>22.16589457789338</v>
@@ -11062,7 +11062,7 @@
         <v>28.83917354304461</v>
       </c>
       <c r="S11" t="n">
-        <v>30.17706873391124</v>
+        <v>30.17706873391123</v>
       </c>
       <c r="T11" t="n">
         <v>31.51496392477785</v>
@@ -11071,7 +11071,7 @@
         <v>32.85285911564448</v>
       </c>
       <c r="V11" t="n">
-        <v>34.1907543065111</v>
+        <v>34.19075430651109</v>
       </c>
     </row>
     <row r="12">
@@ -11227,7 +11227,7 @@
         <v>1.812108796793485</v>
       </c>
       <c r="D14" t="n">
-        <v>1.894192414818246</v>
+        <v>1.894192414818247</v>
       </c>
       <c r="E14" t="n">
         <v>1.977667919753584</v>
@@ -11236,25 +11236,25 @@
         <v>2.062307037254903</v>
       </c>
       <c r="G14" t="n">
-        <v>2.148023251292891</v>
+        <v>2.148023251292892</v>
       </c>
       <c r="H14" t="n">
-        <v>2.234595327470994</v>
+        <v>2.234595327470995</v>
       </c>
       <c r="I14" t="n">
-        <v>2.321964632076949</v>
+        <v>2.32196463207695</v>
       </c>
       <c r="J14" t="n">
         <v>2.410244164685627</v>
       </c>
       <c r="K14" t="n">
-        <v>2.499188552508775</v>
+        <v>2.499188552508776</v>
       </c>
       <c r="L14" t="n">
         <v>2.588632733907993</v>
       </c>
       <c r="M14" t="n">
-        <v>2.678627135928235</v>
+        <v>2.678627135928236</v>
       </c>
       <c r="N14" t="n">
         <v>2.769197622399291</v>
@@ -11266,7 +11266,7 @@
         <v>2.952031089580713</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.044120117186424</v>
+        <v>3.044120117186425</v>
       </c>
       <c r="R14" t="n">
         <v>3.136807899285758</v>
@@ -11275,13 +11275,13 @@
         <v>3.229843478108231</v>
       </c>
       <c r="T14" t="n">
-        <v>3.323162650081445</v>
+        <v>3.323162650081446</v>
       </c>
       <c r="U14" t="n">
         <v>3.416799214498837</v>
       </c>
       <c r="V14" t="n">
-        <v>3.510603024395959</v>
+        <v>3.51060302439596</v>
       </c>
     </row>
     <row r="15">
@@ -12431,22 +12431,22 @@
         <v>1.410033310665717</v>
       </c>
       <c r="D3" t="n">
-        <v>1.543090549428875</v>
+        <v>1.543090549428876</v>
       </c>
       <c r="E3" t="n">
-        <v>1.68067788029227</v>
+        <v>1.680677880292271</v>
       </c>
       <c r="F3" t="n">
         <v>1.821447808002432</v>
       </c>
       <c r="G3" t="n">
-        <v>1.964730593200932</v>
+        <v>1.964730593200933</v>
       </c>
       <c r="H3" t="n">
-        <v>2.110333784892306</v>
+        <v>2.110333784892307</v>
       </c>
       <c r="I3" t="n">
-        <v>2.258250919274337</v>
+        <v>2.258250919274338</v>
       </c>
       <c r="J3" t="n">
         <v>2.408035951602062</v>
@@ -12455,34 +12455,34 @@
         <v>2.559366024200588</v>
       </c>
       <c r="L3" t="n">
-        <v>2.712187567248265</v>
+        <v>2.712187567248266</v>
       </c>
       <c r="M3" t="n">
-        <v>2.866342382026397</v>
+        <v>2.866342382026398</v>
       </c>
       <c r="N3" t="n">
-        <v>3.021289000526156</v>
+        <v>3.021289000526157</v>
       </c>
       <c r="O3" t="n">
         <v>3.176937564779336</v>
       </c>
       <c r="P3" t="n">
-        <v>3.333399846859376</v>
+        <v>3.333399846859377</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.490621418230554</v>
+        <v>3.490621418230555</v>
       </c>
       <c r="R3" t="n">
-        <v>3.648450531875794</v>
+        <v>3.648450531875796</v>
       </c>
       <c r="S3" t="n">
-        <v>3.806803587633814</v>
+        <v>3.806803587633815</v>
       </c>
       <c r="T3" t="n">
-        <v>3.965496061654225</v>
+        <v>3.965496061654226</v>
       </c>
       <c r="U3" t="n">
-        <v>4.124335214033075</v>
+        <v>4.124335214033076</v>
       </c>
       <c r="V3" t="n">
         <v>4.283367721141836</v>
@@ -12568,7 +12568,7 @@
         <v>1.036687623268856</v>
       </c>
       <c r="C5" t="n">
-        <v>1.096795042567321</v>
+        <v>1.09679504256732</v>
       </c>
       <c r="D5" t="n">
         <v>1.158571873645739</v>
@@ -12580,7 +12580,7 @@
         <v>1.28730502721272</v>
       </c>
       <c r="G5" t="n">
-        <v>1.354151076680049</v>
+        <v>1.354151076680048</v>
       </c>
       <c r="H5" t="n">
         <v>1.422449172098287</v>
@@ -12589,7 +12589,7 @@
         <v>1.492262871181758</v>
       </c>
       <c r="J5" t="n">
-        <v>1.563664835879314</v>
+        <v>1.563664835879313</v>
       </c>
       <c r="K5" t="n">
         <v>1.636538956878855</v>
@@ -12616,13 +12616,13 @@
         <v>2.180108485119088</v>
       </c>
       <c r="S5" t="n">
-        <v>2.261883708521428</v>
+        <v>2.261883708521427</v>
       </c>
       <c r="T5" t="n">
         <v>2.344665576615468</v>
       </c>
       <c r="U5" t="n">
-        <v>2.428422743777672</v>
+        <v>2.428422743777671</v>
       </c>
       <c r="V5" t="n">
         <v>2.512855182228281</v>
@@ -12705,67 +12705,67 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3196473660909041</v>
+        <v>0.3196473660909042</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3445942606810581</v>
+        <v>0.3445942606810582</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3699193185974175</v>
+        <v>0.3699193185974177</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3955988360392205</v>
+        <v>0.3955988360392207</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4215683413442194</v>
+        <v>0.4215683413442196</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4478321485203223</v>
+        <v>0.4478321485203225</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4743268873074535</v>
+        <v>0.4743268873074536</v>
       </c>
       <c r="I7" t="n">
-        <v>0.500993144090085</v>
+        <v>0.5009931440900852</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5277580813359775</v>
+        <v>0.5277580813359777</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5545840817835663</v>
+        <v>0.5545840817835667</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5814639983293836</v>
+        <v>0.5814639983293839</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6084156128901832</v>
+        <v>0.6084156128901834</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6354221904174179</v>
+        <v>0.6354221904174181</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6624457896097049</v>
+        <v>0.6624457896097053</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6894693888019922</v>
+        <v>0.6894693888019924</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7164929879942793</v>
+        <v>0.7164929879942795</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7435165871865662</v>
+        <v>0.7435165871865665</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7705401863788534</v>
+        <v>0.7705401863788537</v>
       </c>
       <c r="T7" t="n">
-        <v>0.7975637855711405</v>
+        <v>0.797563785571141</v>
       </c>
       <c r="U7" t="n">
-        <v>0.8245873847634277</v>
+        <v>0.8245873847634281</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8516109839557148</v>
+        <v>0.851610983955715</v>
       </c>
     </row>
     <row r="8">
@@ -12991,7 +12991,7 @@
         <v>13.51777700265784</v>
       </c>
       <c r="D11" t="n">
-        <v>14.61625844321824</v>
+        <v>14.61625844321823</v>
       </c>
       <c r="E11" t="n">
         <v>15.74162738786929</v>
@@ -13012,7 +13012,7 @@
         <v>21.72899340901966</v>
       </c>
       <c r="K11" t="n">
-        <v>22.99903425558161</v>
+        <v>22.9990342555816</v>
       </c>
       <c r="L11" t="n">
         <v>24.2860201316089</v>
@@ -13024,10 +13024,10 @@
         <v>26.88885033510687</v>
       </c>
       <c r="O11" t="n">
-        <v>28.20294944935292</v>
+        <v>28.20294944935291</v>
       </c>
       <c r="P11" t="n">
-        <v>29.52486420097402</v>
+        <v>29.52486420097401</v>
       </c>
       <c r="Q11" t="n">
         <v>30.852625935292</v>
@@ -13039,13 +13039,13 @@
         <v>33.51647605072527</v>
       </c>
       <c r="T11" t="n">
-        <v>34.85224311063632</v>
+        <v>34.85224311063631</v>
       </c>
       <c r="U11" t="n">
-        <v>36.18897951161789</v>
+        <v>36.18897951161788</v>
       </c>
       <c r="V11" t="n">
-        <v>37.52617178886608</v>
+        <v>37.52617178886607</v>
       </c>
     </row>
     <row r="12">
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.36499867038919</v>
+        <v>1.364998670389191</v>
       </c>
       <c r="C14" t="n">
         <v>1.440761255651852</v>
@@ -13204,22 +13204,22 @@
         <v>1.518256378959228</v>
       </c>
       <c r="E14" t="n">
-        <v>1.597224551848178</v>
+        <v>1.597224551848179</v>
       </c>
       <c r="F14" t="n">
         <v>1.677518075583402</v>
       </c>
       <c r="G14" t="n">
-        <v>1.759136736336409</v>
+        <v>1.75913673633641</v>
       </c>
       <c r="H14" t="n">
-        <v>1.84185650447042</v>
+        <v>1.841856504470421</v>
       </c>
       <c r="I14" t="n">
         <v>1.925796114941109</v>
       </c>
       <c r="J14" t="n">
-        <v>2.010728895616282</v>
+        <v>2.010728895616283</v>
       </c>
       <c r="K14" t="n">
         <v>2.096556476717349</v>
@@ -13231,31 +13231,31 @@
         <v>2.271033273647275</v>
       </c>
       <c r="N14" t="n">
-        <v>2.359519668124464</v>
+        <v>2.359519668124465</v>
       </c>
       <c r="O14" t="n">
-        <v>2.448569150971701</v>
+        <v>2.448569150971702</v>
       </c>
       <c r="P14" t="n">
-        <v>2.538174069501072</v>
+        <v>2.538174069501073</v>
       </c>
       <c r="Q14" t="n">
         <v>2.628291736087772</v>
       </c>
       <c r="R14" t="n">
-        <v>2.718867119902482</v>
+        <v>2.718867119902483</v>
       </c>
       <c r="S14" t="n">
-        <v>2.810074534671703</v>
+        <v>2.810074534671704</v>
       </c>
       <c r="T14" t="n">
-        <v>2.901784805187603</v>
+        <v>2.901784805187604</v>
       </c>
       <c r="U14" t="n">
         <v>2.99388807326012</v>
       </c>
       <c r="V14" t="n">
-        <v>3.086260066540218</v>
+        <v>3.086260066540219</v>
       </c>
     </row>
     <row r="15">
